--- a/Dokumentasjon og MSF/prosjektplan_msf.xlsx
+++ b/Dokumentasjon og MSF/prosjektplan_msf.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Documents\Westerdals\Iterativt Webprosjekt - PJ 2100\Eksamen2100 PJ\Dokumentasjon og MSF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="32460" windowHeight="20100" tabRatio="834"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="32460" windowHeight="20100" tabRatio="834" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prosjektplan" sheetId="1" r:id="rId1"/>
-    <sheet name="Produktrolle" sheetId="2" r:id="rId2"/>
+    <sheet name="Prosjektplan 2" sheetId="2" r:id="rId2"/>
     <sheet name="Prosessrolle" sheetId="3" r:id="rId3"/>
     <sheet name="Testrolle" sheetId="4" r:id="rId4"/>
     <sheet name="Brukeropplevelserolle" sheetId="5" r:id="rId5"/>
     <sheet name="Utviklingsrolle" sheetId="6" r:id="rId6"/>
     <sheet name="Utrullingsrolle" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>Utvikling av prosjekt X</t>
   </si>
@@ -214,13 +219,37 @@
   </si>
   <si>
     <t>Oppdateres med de neste punktene</t>
+  </si>
+  <si>
+    <t>Fornye avgrensning (scope) for denne iterasjonen</t>
+  </si>
+  <si>
+    <t>Oppdatere risikoplanen</t>
+  </si>
+  <si>
+    <t>Stian/Eirik</t>
+  </si>
+  <si>
+    <t>Lage prosjektplan 2</t>
+  </si>
+  <si>
+    <t>Utviklere*</t>
+  </si>
+  <si>
+    <t>*Iben, Tobias og Eirikur</t>
+  </si>
+  <si>
+    <t>3. paRT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-414]d/\ mmmm;@"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -307,6 +336,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -347,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -429,6 +463,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,7 +490,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -504,9 +553,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyAlignment="1">
@@ -525,6 +571,17 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -839,27 +896,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
@@ -882,12 +939,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>28</v>
       </c>
@@ -914,8 +971,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -939,11 +996,11 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" ht="28">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="18">
@@ -952,13 +1009,13 @@
       <c r="D7" s="18">
         <v>42075</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>10</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>8</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <f>E7-F7</f>
         <v>2</v>
       </c>
@@ -966,7 +1023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
@@ -991,7 +1048,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="14">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1</v>
       </c>
@@ -1018,14 +1075,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="28">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1134,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="28">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
@@ -1104,7 +1161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
@@ -1120,7 +1177,7 @@
       <c r="E16" s="16">
         <v>8</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="38">
         <v>6</v>
       </c>
       <c r="G16" s="16">
@@ -1131,7 +1188,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="42">
+    <row r="17" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -1158,12 +1215,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
@@ -1186,11 +1243,11 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
@@ -1213,11 +1270,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
@@ -1240,11 +1297,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
@@ -1257,21 +1314,21 @@
       <c r="D24" s="18">
         <v>42075</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>3</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>2</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
@@ -1281,27 +1338,27 @@
       <c r="C25" s="18">
         <v>42075</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>3</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="33" t="s">
         <v>56</v>
       </c>
       <c r="O25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="42">
+    <row r="29" spans="1:15" ht="39" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
@@ -1328,7 +1385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>35</v>
       </c>
@@ -1364,7 +1421,7 @@
       </c>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:15" ht="28">
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>37</v>
       </c>
@@ -1381,13 +1438,13 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G33">
         <f>E33-F33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>12</v>
       </c>
@@ -1397,51 +1454,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8" ht="28">
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="18">
         <v>42072</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="31"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28">
+    <row r="38" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="18">
@@ -1464,7 +1521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>11</v>
       </c>
@@ -1486,19 +1543,19 @@
       <c r="D40" s="18">
         <v>42076</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="39">
         <v>1</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <v>2</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="39">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" ht="14">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>16</v>
       </c>
@@ -1534,54 +1591,445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
-      <c r="A9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="G5">
+        <f>E5-F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="G6">
+        <f>E6-F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="G7">
+        <f>E7-F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="G8">
+        <f>E8-F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="G9">
+        <f>E9-F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="G13">
+        <f>E13-F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="G14">
+        <f t="shared" ref="G14:G16" si="0">E14-F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="G20">
+        <f>E20-F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="G21">
+        <f>E21-F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="G22">
+        <f>E22-F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="G23">
+        <f>E23-F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="G24">
+        <f>E24-F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <f>E28-F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29">
+        <f>E29-F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30">
+        <f>E30-F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31">
+        <f>E31-F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f>E32-F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="G34">
+        <f t="shared" ref="G34:G39" si="1">E34-F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26">
+        <f>E5+E6+E8+E9+E10+E14+E13+E15+E16+E17+E20+E21+E22+E23+E24+E28+E29+E30+E31+E35+E36+E37+E38+E39</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="26">
+        <f>F5+F6+F8+F9+F10+F13+F14+F15+F16+F17+F20+F21+F22+F23+F24+F27+F28+F29+F30+F31+F32+F34+F35+F36+F38+F37+F39</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="26">
+        <f>G5+G6+G8+G9+G10+G13+G14+G15+G16+G17+G20+G21+G22+G23+G24+G25+G28+G29+G30+G31+G35+G36+G37+G38+G39</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1603,16 +2051,16 @@
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27.75" customHeight="1">
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1635,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1666,16 +2114,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="24">
+    <row r="2" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +2146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1729,18 +2177,18 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="24">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1763,7 +2211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1794,15 +2242,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1825,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1856,17 +2304,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1"/>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -1889,7 +2337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" thickBot="1">
+    <row r="9" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>

--- a/Dokumentasjon og MSF/prosjektplan_msf.xlsx
+++ b/Dokumentasjon og MSF/prosjektplan_msf.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>Utvikling av prosjekt X</t>
   </si>
@@ -243,7 +243,28 @@
     <t>Fornye fysisk design (teknologi)</t>
   </si>
   <si>
-    <t xml:space="preserve"> logisk design (modeller)</t>
+    <t>Oppdatert konsekvens og sannsynlighet basert på senere hendelser</t>
+  </si>
+  <si>
+    <t>Grønn = Fast verdi. Ingen endring gjennom iterasjonen eller alltid aktivt</t>
+  </si>
+  <si>
+    <t>Viderutvikle logisk design (modeller)</t>
+  </si>
+  <si>
+    <t>Oppdatere prosjektplan (hver rolle og totalt)</t>
+  </si>
+  <si>
+    <t>Legge til alle enheter</t>
+  </si>
+  <si>
+    <t>Oppdatere testcase</t>
+  </si>
+  <si>
+    <t>Oppdatere dokumentasjon</t>
+  </si>
+  <si>
+    <t>Forny og forbedre FAQ</t>
   </si>
 </sst>
 </file>
@@ -257,6 +278,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -340,13 +368,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +405,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -457,39 +486,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -498,91 +528,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="16" fontId="9" fillId="6" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="7"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="16" fontId="10" fillId="6" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="6" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="9" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Calculation" xfId="7" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="8" builtinId="53"/>
@@ -893,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -916,26 +957,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="58" t="s">
         <v>15</v>
       </c>
     </row>
@@ -943,45 +984,46 @@
       <c r="A4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G4">
-        <f>E4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44">
-        <f t="shared" ref="G5:G40" si="0">E5-F5</f>
-        <v>0</v>
-      </c>
+      <c r="C5" s="59">
+        <v>42073</v>
+      </c>
+      <c r="D5" s="59">
+        <v>42076</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54">
+        <f t="shared" ref="G5:G16" si="0">E5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="32"/>
       <c r="L5" s="31" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="46">
-        <v>42073</v>
-      </c>
-      <c r="D6" s="46">
-        <v>42073</v>
+      <c r="C6" s="43">
+        <v>42079</v>
+      </c>
+      <c r="D6" s="43">
+        <v>42079</v>
       </c>
       <c r="E6" s="38">
         <v>3</v>
@@ -996,140 +1038,144 @@
       <c r="H6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="52" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44">
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="46">
-        <v>42073</v>
-      </c>
-      <c r="D8" s="39"/>
+      <c r="C8" s="43">
+        <v>42079</v>
+      </c>
+      <c r="D8" s="43">
+        <v>42079</v>
+      </c>
       <c r="E8" s="38">
         <v>2</v>
       </c>
-      <c r="F8" s="44">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
+      <c r="F8" s="38">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="45" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="46">
-        <v>42074</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44">
+      <c r="C13" s="43">
+        <v>42080</v>
+      </c>
+      <c r="D13" s="43">
+        <v>42080</v>
+      </c>
+      <c r="E13" s="38">
+        <v>3</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
-        <v>72</v>
+      <c r="A14" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="49" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1137,41 +1183,29 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44">
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>30</v>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44">
+      <c r="C16" s="43">
+        <v>42080</v>
+      </c>
+      <c r="D16" s="43">
+        <v>42081</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1179,349 +1213,325 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44">
-        <f t="shared" si="0"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="43">
+        <v>42081</v>
+      </c>
+      <c r="D20" s="43">
+        <v>42081</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42">
+        <f>E20-F20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>32</v>
+      <c r="A21" s="45" t="s">
+        <v>5</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44">
-        <f t="shared" si="0"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42">
+        <f>E21-F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
-        <v>5</v>
+      <c r="A22" s="45" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44">
-        <f t="shared" si="0"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42">
+        <f>E22-F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>6</v>
+      <c r="A23" s="45" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44">
-        <f t="shared" si="0"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42">
+        <f>E23-F23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>7</v>
+      <c r="A24" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42">
+        <f>E24-F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
-      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="A28" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42">
+        <f>E28-F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
+      <c r="A29" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42">
+        <f>E29-F29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
+      <c r="A30" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>63</v>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42">
+        <f>E30-F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
-      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42">
+        <f>E31-F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="40"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44">
-        <f>E34-F34</f>
-        <v>0</v>
-      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="40"/>
+      <c r="A35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42">
+        <f>E35-F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
+        <f>E36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>58</v>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42">
+        <f>E37-F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
+      <c r="A38" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44">
-        <f t="shared" si="0"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
+        <f>E38-F38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44">
-        <f t="shared" si="0"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42">
+        <f>E39-F39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25">
-        <f>G44+G6+G7+G8+G9+G13+G14+G15+G16+G17+G21+G22+G23+G24+G25+G29+G30+G31+G32+G36+G37+G38+G39+G40</f>
-        <v>2</v>
-      </c>
-      <c r="H41" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25">
+        <f>E5+E6+E7+E8+E9+E13+E14+E15+E16+E20+E21+E22+E23+E24+E28+E29+E30+E31+E35+E36+E37+E38+E39</f>
+        <v>8</v>
+      </c>
+      <c r="F40" s="25">
+        <f>F5+F6+F7+F8+F9+F13+F14+F15+F16+F17+F20+F21+F22+F23+F24+F27+F28+F29+F30+F34+F35+F36+F37+F38+F39</f>
+        <v>4</v>
+      </c>
+      <c r="G40" s="25">
+        <f>G44+G6+G7+G8+G9+G13+G14+G15+G16+G17+G20+G21+G22+G23+G24+G28+G29+G30+G31+G35+G36+G37+G38+G39</f>
+        <v>4</v>
+      </c>
+      <c r="H40" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
@@ -1582,7 +1592,7 @@
       <c r="A4" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1645,7 +1655,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="27" t="s">
@@ -1670,7 +1680,7 @@
       <c r="H7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="51" t="s">
+      <c r="L7" s="48" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2228,7 +2238,7 @@
       <c r="H41" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
